--- a/010-外部設計/015-イベント定義書.xlsx
+++ b/010-外部設計/015-イベント定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91405D5E-FF52-4624-B102-D3C62DAFDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B273EC8-05AD-4508-B4A1-650AE42DD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7356" yWindow="3456" windowWidth="9384" windowHeight="7128" tabRatio="802" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26040" yWindow="2745" windowWidth="17250" windowHeight="8865" tabRatio="802" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -10636,7 +10636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY73"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -17028,7 +17028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE106"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
@@ -22831,7 +22831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AY54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>

--- a/010-外部設計/015-イベント定義書.xlsx
+++ b/010-外部設計/015-イベント定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\010-外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B273EC8-05AD-4508-B4A1-650AE42DD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A01ADEA-5BEB-47A0-88FF-047F31125C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26040" yWindow="2745" windowWidth="17250" windowHeight="8865" tabRatio="802" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="265">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -3294,31 +3294,47 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>該当する注文をキャンセルし、購入キャンセル完了画面へ遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>入力されたキーワードとカテゴリから該当する商品の検索を行い、</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>出力値：なし</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>該当する商品の在庫を増やし、注文をキャンセルし、購入キャンセル完了画面へ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>遷移する</t>
+  </si>
+  <si>
+    <t>対象テーブル：users, items_in_cart, purchases</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -4262,53 +4278,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4346,8 +4320,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4372,60 +4401,35 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4469,35 +4473,47 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5132,25 +5148,25 @@
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="79" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -5166,49 +5182,49 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
-      <c r="AF3" s="81" t="s">
+      <c r="AF3" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="82" t="s">
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
       <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1">
       <c r="A4" s="5"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -5224,26 +5240,26 @@
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="82"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="91"/>
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="91"/>
       <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1">
@@ -5849,44 +5865,44 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="85"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="98"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -5905,42 +5921,42 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="87"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="88"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="100"/>
+      <c r="AM17" s="100"/>
+      <c r="AN17" s="100"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="100"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="101"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
@@ -5959,42 +5975,42 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="87"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="88"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="100"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="100"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="101"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
@@ -6013,42 +6029,42 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="88"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="100"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="100"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="101"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -6067,42 +6083,42 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="87"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="88"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="100"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="101"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
@@ -6121,42 +6137,42 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="87"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="88"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="100"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="100"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="100"/>
+      <c r="AN21" s="100"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="100"/>
+      <c r="AQ21" s="100"/>
+      <c r="AR21" s="101"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
@@ -6175,42 +6191,42 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="87"/>
-      <c r="AM22" s="87"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="88"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="100"/>
+      <c r="AN22" s="100"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="100"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="101"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -6229,42 +6245,42 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="87"/>
-      <c r="AM23" s="87"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="88"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="100"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="100"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="101"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -6283,42 +6299,42 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="87"/>
-      <c r="AM24" s="87"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="87"/>
-      <c r="AR24" s="88"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="100"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="100"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="100"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="101"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
@@ -6337,42 +6353,42 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="87"/>
-      <c r="AN25" s="87"/>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="88"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="100"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="100"/>
+      <c r="AM25" s="100"/>
+      <c r="AN25" s="100"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="100"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="101"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -6391,42 +6407,42 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="87"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="88"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="101"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
@@ -6445,42 +6461,42 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="87"/>
-      <c r="AM27" s="87"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="88"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="100"/>
+      <c r="AQ27" s="100"/>
+      <c r="AR27" s="101"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
@@ -6499,42 +6515,42 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="87"/>
-      <c r="AM28" s="87"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="88"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="100"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="100"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="101"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -6553,42 +6569,42 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="91"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="103"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="103"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="103"/>
+      <c r="AR29" s="104"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -7360,30 +7376,30 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="81" t="s">
+      <c r="AF45" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="81"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
-      <c r="AL45" s="82" t="s">
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="78"/>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="AM45" s="82"/>
-      <c r="AN45" s="82"/>
-      <c r="AO45" s="82"/>
-      <c r="AP45" s="82"/>
-      <c r="AQ45" s="82"/>
-      <c r="AR45" s="82"/>
-      <c r="AS45" s="82"/>
-      <c r="AT45" s="82"/>
-      <c r="AU45" s="82"/>
-      <c r="AV45" s="82"/>
-      <c r="AW45" s="82"/>
-      <c r="AX45" s="82"/>
-      <c r="AY45" s="82"/>
+      <c r="AM45" s="91"/>
+      <c r="AN45" s="91"/>
+      <c r="AO45" s="91"/>
+      <c r="AP45" s="91"/>
+      <c r="AQ45" s="91"/>
+      <c r="AR45" s="91"/>
+      <c r="AS45" s="91"/>
+      <c r="AT45" s="91"/>
+      <c r="AU45" s="91"/>
+      <c r="AV45" s="91"/>
+      <c r="AW45" s="91"/>
+      <c r="AX45" s="91"/>
+      <c r="AY45" s="91"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -7418,26 +7434,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="82"/>
-      <c r="AM46" s="82"/>
-      <c r="AN46" s="82"/>
-      <c r="AO46" s="82"/>
-      <c r="AP46" s="82"/>
-      <c r="AQ46" s="82"/>
-      <c r="AR46" s="82"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="82"/>
-      <c r="AU46" s="82"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="82"/>
-      <c r="AY46" s="82"/>
+      <c r="AF46" s="78"/>
+      <c r="AG46" s="78"/>
+      <c r="AH46" s="78"/>
+      <c r="AI46" s="78"/>
+      <c r="AJ46" s="78"/>
+      <c r="AK46" s="78"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="91"/>
+      <c r="AN46" s="91"/>
+      <c r="AO46" s="91"/>
+      <c r="AP46" s="91"/>
+      <c r="AQ46" s="91"/>
+      <c r="AR46" s="91"/>
+      <c r="AS46" s="91"/>
+      <c r="AT46" s="91"/>
+      <c r="AU46" s="91"/>
+      <c r="AV46" s="91"/>
+      <c r="AW46" s="91"/>
+      <c r="AX46" s="91"/>
+      <c r="AY46" s="91"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" ht="10.5" customHeight="1">
@@ -7472,30 +7488,30 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="81" t="s">
+      <c r="AF47" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="81"/>
-      <c r="AI47" s="81"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="81"/>
-      <c r="AL47" s="92">
+      <c r="AG47" s="78"/>
+      <c r="AH47" s="78"/>
+      <c r="AI47" s="78"/>
+      <c r="AJ47" s="78"/>
+      <c r="AK47" s="78"/>
+      <c r="AL47" s="77">
         <v>45547</v>
       </c>
-      <c r="AM47" s="92"/>
-      <c r="AN47" s="92"/>
-      <c r="AO47" s="92"/>
-      <c r="AP47" s="92"/>
-      <c r="AQ47" s="92"/>
-      <c r="AR47" s="92"/>
-      <c r="AS47" s="92"/>
-      <c r="AT47" s="92"/>
-      <c r="AU47" s="92"/>
-      <c r="AV47" s="92"/>
-      <c r="AW47" s="92"/>
-      <c r="AX47" s="92"/>
-      <c r="AY47" s="92"/>
+      <c r="AM47" s="77"/>
+      <c r="AN47" s="77"/>
+      <c r="AO47" s="77"/>
+      <c r="AP47" s="77"/>
+      <c r="AQ47" s="77"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="77"/>
+      <c r="AT47" s="77"/>
+      <c r="AU47" s="77"/>
+      <c r="AV47" s="77"/>
+      <c r="AW47" s="77"/>
+      <c r="AX47" s="77"/>
+      <c r="AY47" s="77"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" ht="10.5" customHeight="1">
@@ -7530,26 +7546,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="81"/>
-      <c r="AH48" s="81"/>
-      <c r="AI48" s="81"/>
-      <c r="AJ48" s="81"/>
-      <c r="AK48" s="81"/>
-      <c r="AL48" s="92"/>
-      <c r="AM48" s="92"/>
-      <c r="AN48" s="92"/>
-      <c r="AO48" s="92"/>
-      <c r="AP48" s="92"/>
-      <c r="AQ48" s="92"/>
-      <c r="AR48" s="92"/>
-      <c r="AS48" s="92"/>
-      <c r="AT48" s="92"/>
-      <c r="AU48" s="92"/>
-      <c r="AV48" s="92"/>
-      <c r="AW48" s="92"/>
-      <c r="AX48" s="92"/>
-      <c r="AY48" s="92"/>
+      <c r="AF48" s="78"/>
+      <c r="AG48" s="78"/>
+      <c r="AH48" s="78"/>
+      <c r="AI48" s="78"/>
+      <c r="AJ48" s="78"/>
+      <c r="AK48" s="78"/>
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="77"/>
+      <c r="AN48" s="77"/>
+      <c r="AO48" s="77"/>
+      <c r="AP48" s="77"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="77"/>
+      <c r="AT48" s="77"/>
+      <c r="AU48" s="77"/>
+      <c r="AV48" s="77"/>
+      <c r="AW48" s="77"/>
+      <c r="AX48" s="77"/>
+      <c r="AY48" s="77"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" ht="12" customHeight="1">
@@ -7584,30 +7600,30 @@
       <c r="AC49" s="6"/>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6"/>
-      <c r="AF49" s="93" t="s">
+      <c r="AF49" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="AG49" s="94"/>
-      <c r="AH49" s="94"/>
-      <c r="AI49" s="94"/>
-      <c r="AJ49" s="94"/>
-      <c r="AK49" s="95"/>
-      <c r="AL49" s="99" t="s">
+      <c r="AG49" s="80"/>
+      <c r="AH49" s="80"/>
+      <c r="AI49" s="80"/>
+      <c r="AJ49" s="80"/>
+      <c r="AK49" s="81"/>
+      <c r="AL49" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="AM49" s="100"/>
-      <c r="AN49" s="100"/>
-      <c r="AO49" s="100"/>
-      <c r="AP49" s="100"/>
-      <c r="AQ49" s="100"/>
-      <c r="AR49" s="100"/>
-      <c r="AS49" s="100"/>
-      <c r="AT49" s="100"/>
-      <c r="AU49" s="100"/>
-      <c r="AV49" s="100"/>
-      <c r="AW49" s="100"/>
-      <c r="AX49" s="100"/>
-      <c r="AY49" s="101"/>
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="86"/>
+      <c r="AP49" s="86"/>
+      <c r="AQ49" s="86"/>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86"/>
+      <c r="AY49" s="87"/>
       <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" ht="12" customHeight="1">
@@ -7642,26 +7658,26 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
-      <c r="AF50" s="96"/>
-      <c r="AG50" s="97"/>
-      <c r="AH50" s="97"/>
-      <c r="AI50" s="97"/>
-      <c r="AJ50" s="97"/>
-      <c r="AK50" s="98"/>
-      <c r="AL50" s="102"/>
-      <c r="AM50" s="103"/>
-      <c r="AN50" s="103"/>
-      <c r="AO50" s="103"/>
-      <c r="AP50" s="103"/>
-      <c r="AQ50" s="103"/>
-      <c r="AR50" s="103"/>
-      <c r="AS50" s="103"/>
-      <c r="AT50" s="103"/>
-      <c r="AU50" s="103"/>
-      <c r="AV50" s="103"/>
-      <c r="AW50" s="103"/>
-      <c r="AX50" s="103"/>
-      <c r="AY50" s="104"/>
+      <c r="AF50" s="82"/>
+      <c r="AG50" s="83"/>
+      <c r="AH50" s="83"/>
+      <c r="AI50" s="83"/>
+      <c r="AJ50" s="83"/>
+      <c r="AK50" s="84"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="89"/>
+      <c r="AN50" s="89"/>
+      <c r="AO50" s="89"/>
+      <c r="AP50" s="89"/>
+      <c r="AQ50" s="89"/>
+      <c r="AR50" s="89"/>
+      <c r="AS50" s="89"/>
+      <c r="AT50" s="89"/>
+      <c r="AU50" s="89"/>
+      <c r="AV50" s="89"/>
+      <c r="AW50" s="89"/>
+      <c r="AX50" s="89"/>
+      <c r="AY50" s="90"/>
       <c r="AZ50" s="7"/>
     </row>
     <row r="51" spans="1:52">
@@ -7774,17 +7790,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="M3:P4"/>
+    <mergeCell ref="AF3:AK4"/>
+    <mergeCell ref="AL3:AY4"/>
+    <mergeCell ref="I16:AR29"/>
     <mergeCell ref="AL47:AY48"/>
     <mergeCell ref="AF47:AK48"/>
     <mergeCell ref="AF49:AK50"/>
     <mergeCell ref="AL49:AY50"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AL45:AY46"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="M3:P4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AL3:AY4"/>
-    <mergeCell ref="I16:AR29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7812,244 +7828,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" thickTop="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="109"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="114"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="111"/>
-      <c r="AR2" s="111"/>
-      <c r="AS2" s="111"/>
-      <c r="AT2" s="111"/>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
-      <c r="AX2" s="111"/>
-      <c r="AY2" s="111"/>
-      <c r="AZ2" s="112"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="116"/>
+      <c r="AZ2" s="117"/>
     </row>
     <row r="3" spans="1:52" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:52" ht="12">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="115" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="115" t="s">
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="115" t="s">
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="117"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="109"/>
     </row>
     <row r="5" spans="1:52" ht="12">
-      <c r="A5" s="118">
+      <c r="A5" s="110">
         <f t="shared" ref="A5:A46" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="119">
+      <c r="B5" s="110"/>
+      <c r="C5" s="111">
         <v>45537</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="118" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118" t="s">
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="118"/>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="118"/>
-      <c r="AM5" s="118"/>
-      <c r="AN5" s="118"/>
-      <c r="AO5" s="118"/>
-      <c r="AP5" s="118"/>
-      <c r="AQ5" s="118"/>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="118"/>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="118"/>
-      <c r="AV5" s="118"/>
-      <c r="AW5" s="118"/>
-      <c r="AX5" s="118"/>
-      <c r="AY5" s="118"/>
-      <c r="AZ5" s="118"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
     </row>
     <row r="6" spans="1:52" ht="12">
       <c r="A6" s="105">
@@ -10348,232 +10364,88 @@
       <c r="AZ45" s="105"/>
     </row>
     <row r="46" spans="1:52" ht="12">
-      <c r="A46" s="113">
+      <c r="A46" s="118">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="113"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="113"/>
-      <c r="W46" s="113"/>
-      <c r="X46" s="113"/>
-      <c r="Y46" s="113"/>
-      <c r="Z46" s="113"/>
-      <c r="AA46" s="113"/>
-      <c r="AB46" s="113"/>
-      <c r="AC46" s="113"/>
-      <c r="AD46" s="113"/>
-      <c r="AE46" s="113"/>
-      <c r="AF46" s="113"/>
-      <c r="AG46" s="113"/>
-      <c r="AH46" s="113"/>
-      <c r="AI46" s="113"/>
-      <c r="AJ46" s="113"/>
-      <c r="AK46" s="113"/>
-      <c r="AL46" s="113"/>
-      <c r="AM46" s="113"/>
-      <c r="AN46" s="113"/>
-      <c r="AO46" s="113"/>
-      <c r="AP46" s="113"/>
-      <c r="AQ46" s="113"/>
-      <c r="AR46" s="113"/>
-      <c r="AS46" s="113"/>
-      <c r="AT46" s="113"/>
-      <c r="AU46" s="113"/>
-      <c r="AV46" s="113"/>
-      <c r="AW46" s="113"/>
-      <c r="AX46" s="113"/>
-      <c r="AY46" s="113"/>
-      <c r="AZ46" s="113"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="118"/>
+      <c r="Y46" s="118"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="118"/>
+      <c r="AB46" s="118"/>
+      <c r="AC46" s="118"/>
+      <c r="AD46" s="118"/>
+      <c r="AE46" s="118"/>
+      <c r="AF46" s="118"/>
+      <c r="AG46" s="118"/>
+      <c r="AH46" s="118"/>
+      <c r="AI46" s="118"/>
+      <c r="AJ46" s="118"/>
+      <c r="AK46" s="118"/>
+      <c r="AL46" s="118"/>
+      <c r="AM46" s="118"/>
+      <c r="AN46" s="118"/>
+      <c r="AO46" s="118"/>
+      <c r="AP46" s="118"/>
+      <c r="AQ46" s="118"/>
+      <c r="AR46" s="118"/>
+      <c r="AS46" s="118"/>
+      <c r="AT46" s="118"/>
+      <c r="AU46" s="118"/>
+      <c r="AV46" s="118"/>
+      <c r="AW46" s="118"/>
+      <c r="AX46" s="118"/>
+      <c r="AY46" s="118"/>
+      <c r="AZ46" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="A1:AZ2"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
     <mergeCell ref="K43:T43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
@@ -10598,30 +10470,174 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="U41:AZ41"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="A1:AZ2"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="U5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10637,7 +10653,7 @@
   <dimension ref="A1:AY73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" customHeight="1"/>
@@ -10648,165 +10664,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="156" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="157" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="143">
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="139">
         <v>45547</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="144" t="s">
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="134">
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="130">
         <v>3</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="136"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="132"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="140" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="140" t="s">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="142" t="s">
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="139"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:51" ht="12" customHeight="1" thickTop="1"/>
     <row r="4" spans="1:51" ht="12" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:51" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:51" ht="12" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="126"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="43" t="s">
         <v>19</v>
       </c>
@@ -10819,55 +10835,55 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="130" t="s">
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="131"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="150"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="132">
+      <c r="A7" s="151">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="39" t="s">
         <v>93</v>
       </c>
@@ -11748,10 +11764,10 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="12" customHeight="1">
-      <c r="A23" s="120">
+      <c r="A23" s="153">
         <v>2</v>
       </c>
-      <c r="B23" s="121"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="39" t="s">
         <v>109</v>
       </c>
@@ -12247,10 +12263,10 @@
       <c r="AY31" s="25"/>
     </row>
     <row r="32" spans="1:51" ht="12" customHeight="1">
-      <c r="A32" s="120">
+      <c r="A32" s="153">
         <v>3</v>
       </c>
-      <c r="B32" s="121"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="39" t="s">
         <v>94</v>
       </c>
@@ -12746,10 +12762,10 @@
       <c r="AY40" s="25"/>
     </row>
     <row r="41" spans="1:51" ht="12" customHeight="1">
-      <c r="A41" s="120">
+      <c r="A41" s="153">
         <v>4</v>
       </c>
-      <c r="B41" s="121"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="39" t="s">
         <v>95</v>
       </c>
@@ -12805,10 +12821,10 @@
       <c r="AY41" s="27"/>
     </row>
     <row r="42" spans="1:51" ht="12" customHeight="1">
-      <c r="A42" s="120">
+      <c r="A42" s="153">
         <v>5</v>
       </c>
-      <c r="B42" s="121"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="39" t="s">
         <v>103</v>
       </c>
@@ -13744,10 +13760,10 @@
       <c r="AY58" s="25"/>
     </row>
     <row r="59" spans="1:51" ht="12" customHeight="1">
-      <c r="A59" s="120">
+      <c r="A59" s="153">
         <v>6</v>
       </c>
-      <c r="B59" s="121"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="39" t="s">
         <v>96</v>
       </c>
@@ -14243,10 +14259,10 @@
       <c r="AY67" s="25"/>
     </row>
     <row r="68" spans="1:51" ht="12" customHeight="1" thickBot="1">
-      <c r="A68" s="120">
+      <c r="A68" s="153">
         <v>7</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="39" t="s">
         <v>97</v>
       </c>
@@ -14302,59 +14318,59 @@
       <c r="AY68" s="27"/>
     </row>
     <row r="69" spans="1:51" ht="12" customHeight="1">
-      <c r="A69" s="122" t="s">
+      <c r="A69" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="123"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="123"/>
-      <c r="H69" s="123"/>
-      <c r="I69" s="123"/>
-      <c r="J69" s="123"/>
-      <c r="K69" s="123"/>
-      <c r="L69" s="123"/>
-      <c r="M69" s="123"/>
-      <c r="N69" s="123"/>
-      <c r="O69" s="123"/>
-      <c r="P69" s="123"/>
-      <c r="Q69" s="123"/>
-      <c r="R69" s="123"/>
-      <c r="S69" s="123"/>
-      <c r="T69" s="123"/>
-      <c r="U69" s="123"/>
-      <c r="V69" s="123"/>
-      <c r="W69" s="123"/>
-      <c r="X69" s="123"/>
-      <c r="Y69" s="123"/>
-      <c r="Z69" s="123"/>
-      <c r="AA69" s="123"/>
-      <c r="AB69" s="123"/>
-      <c r="AC69" s="123"/>
-      <c r="AD69" s="123"/>
-      <c r="AE69" s="123"/>
-      <c r="AF69" s="123"/>
-      <c r="AG69" s="123"/>
-      <c r="AH69" s="123"/>
-      <c r="AI69" s="123"/>
-      <c r="AJ69" s="123"/>
-      <c r="AK69" s="123"/>
-      <c r="AL69" s="123"/>
-      <c r="AM69" s="123"/>
-      <c r="AN69" s="123"/>
-      <c r="AO69" s="123"/>
-      <c r="AP69" s="123"/>
-      <c r="AQ69" s="123"/>
-      <c r="AR69" s="123"/>
-      <c r="AS69" s="123"/>
-      <c r="AT69" s="123"/>
-      <c r="AU69" s="123"/>
-      <c r="AV69" s="123"/>
-      <c r="AW69" s="123"/>
-      <c r="AX69" s="123"/>
-      <c r="AY69" s="124"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+      <c r="L69" s="156"/>
+      <c r="M69" s="156"/>
+      <c r="N69" s="156"/>
+      <c r="O69" s="156"/>
+      <c r="P69" s="156"/>
+      <c r="Q69" s="156"/>
+      <c r="R69" s="156"/>
+      <c r="S69" s="156"/>
+      <c r="T69" s="156"/>
+      <c r="U69" s="156"/>
+      <c r="V69" s="156"/>
+      <c r="W69" s="156"/>
+      <c r="X69" s="156"/>
+      <c r="Y69" s="156"/>
+      <c r="Z69" s="156"/>
+      <c r="AA69" s="156"/>
+      <c r="AB69" s="156"/>
+      <c r="AC69" s="156"/>
+      <c r="AD69" s="156"/>
+      <c r="AE69" s="156"/>
+      <c r="AF69" s="156"/>
+      <c r="AG69" s="156"/>
+      <c r="AH69" s="156"/>
+      <c r="AI69" s="156"/>
+      <c r="AJ69" s="156"/>
+      <c r="AK69" s="156"/>
+      <c r="AL69" s="156"/>
+      <c r="AM69" s="156"/>
+      <c r="AN69" s="156"/>
+      <c r="AO69" s="156"/>
+      <c r="AP69" s="156"/>
+      <c r="AQ69" s="156"/>
+      <c r="AR69" s="156"/>
+      <c r="AS69" s="156"/>
+      <c r="AT69" s="156"/>
+      <c r="AU69" s="156"/>
+      <c r="AV69" s="156"/>
+      <c r="AW69" s="156"/>
+      <c r="AX69" s="156"/>
+      <c r="AY69" s="157"/>
     </row>
     <row r="70" spans="1:51" ht="12" customHeight="1">
       <c r="A70" s="34"/>
@@ -14570,11 +14586,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:AY69"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AO6"/>
+    <mergeCell ref="AP6:AY6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="AW1:AY2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AG2"/>
@@ -14582,17 +14604,11 @@
     <mergeCell ref="AL2:AT2"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AO6"/>
-    <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:AY69"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -14605,10 +14621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AY45"/>
+  <dimension ref="A1:AY46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
@@ -14619,165 +14635,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="156" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="157" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="143">
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="139">
         <v>42887</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="144" t="s">
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="134">
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="130">
         <v>4</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="136"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="132"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="140" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="140" t="s">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="142" t="s">
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="139"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="126"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="43" t="s">
         <v>19</v>
       </c>
@@ -14790,55 +14806,55 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="130" t="s">
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="131"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="150"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="132">
+      <c r="A7" s="151">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="39" t="s">
         <v>104</v>
       </c>
@@ -15389,10 +15405,10 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="12" customHeight="1">
-      <c r="A17" s="132">
+      <c r="A17" s="151">
         <v>2</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="39" t="s">
         <v>105</v>
       </c>
@@ -15517,7 +15533,7 @@
       <c r="L19" s="23"/>
       <c r="M19" s="40"/>
       <c r="N19" s="23" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -15572,7 +15588,7 @@
       <c r="L20" s="23"/>
       <c r="M20" s="40"/>
       <c r="N20" s="23" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -15627,7 +15643,7 @@
       <c r="L21" s="23"/>
       <c r="M21" s="40"/>
       <c r="N21" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
@@ -15681,10 +15697,10 @@
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="23" t="s">
-        <v>246</v>
-      </c>
+      <c r="N22" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="O22" s="23"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
@@ -15735,11 +15751,11 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="P23" s="23"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
@@ -15790,10 +15806,10 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="23" t="s">
-        <v>255</v>
-      </c>
+      <c r="M24" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23"/>
@@ -15846,10 +15862,10 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23" t="s">
-        <v>256</v>
-      </c>
+      <c r="N25" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="O25" s="23"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
@@ -15901,10 +15917,10 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="O26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23" t="s">
+        <v>256</v>
+      </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
@@ -15956,10 +15972,10 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="40"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="23" t="s">
-        <v>249</v>
-      </c>
+      <c r="N27" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" s="23"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
@@ -16010,11 +16026,11 @@
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="23" t="s">
+        <v>249</v>
+      </c>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
@@ -16053,71 +16069,67 @@
       <c r="AY28" s="25"/>
     </row>
     <row r="29" spans="1:51" ht="12" customHeight="1">
-      <c r="A29" s="132">
+      <c r="A29" s="31"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="24"/>
+      <c r="AY29" s="25"/>
+    </row>
+    <row r="30" spans="1:51" ht="12" customHeight="1">
+      <c r="A30" s="151">
         <v>3</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="39" t="s">
+      <c r="B30" s="152"/>
+      <c r="C30" s="39" t="s">
         <v>106</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="27"/>
-    </row>
-    <row r="30" spans="1:51" ht="12" customHeight="1">
-      <c r="A30" s="132">
-        <v>4</v>
-      </c>
-      <c r="B30" s="133"/>
-      <c r="C30" s="39" t="s">
-        <v>107</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -16128,8 +16140,8 @@
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="39" t="s">
-        <v>250</v>
+      <c r="M30" s="71" t="s">
+        <v>225</v>
       </c>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
@@ -16171,59 +16183,63 @@
       <c r="AY30" s="27"/>
     </row>
     <row r="31" spans="1:51" ht="12" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="23"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="24"/>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
-      <c r="AX31" s="24"/>
-      <c r="AY31" s="25"/>
+      <c r="A31" s="151">
+        <v>4</v>
+      </c>
+      <c r="B31" s="152"/>
+      <c r="C31" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="33"/>
+      <c r="AT31" s="33"/>
+      <c r="AU31" s="33"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="33"/>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="27"/>
     </row>
     <row r="32" spans="1:51" ht="12" customHeight="1">
       <c r="A32" s="51"/>
@@ -16240,7 +16256,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="40"/>
       <c r="N32" s="23" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
@@ -16295,7 +16311,7 @@
       <c r="L33" s="23"/>
       <c r="M33" s="40"/>
       <c r="N33" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
@@ -16349,10 +16365,10 @@
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="40"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23" t="s">
-        <v>226</v>
-      </c>
+      <c r="N34" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" s="23"/>
       <c r="P34" s="23"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
@@ -16403,11 +16419,11 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="40" t="s">
-        <v>254</v>
-      </c>
+      <c r="M35" s="40"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="O35" s="23" t="s">
+        <v>264</v>
+      </c>
       <c r="P35" s="23"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
@@ -16458,10 +16474,10 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="23" t="s">
-        <v>255</v>
-      </c>
+      <c r="M36" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="N36" s="23"/>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
@@ -16514,10 +16530,10 @@
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23" t="s">
-        <v>256</v>
-      </c>
+      <c r="N37" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="O37" s="23"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
@@ -16556,8 +16572,8 @@
       <c r="AY37" s="25"/>
     </row>
     <row r="38" spans="1:51" ht="12" customHeight="1">
-      <c r="A38" s="31"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="40"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -16568,11 +16584,11 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="N38" s="58"/>
-      <c r="O38" s="23"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23" t="s">
+        <v>256</v>
+      </c>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
@@ -16611,226 +16627,228 @@
       <c r="AY38" s="25"/>
     </row>
     <row r="39" spans="1:51" ht="12" customHeight="1">
-      <c r="A39" s="132">
+      <c r="A39" s="31"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" s="58"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="32"/>
+      <c r="AP39" s="24"/>
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="24"/>
+      <c r="AS39" s="24"/>
+      <c r="AT39" s="24"/>
+      <c r="AU39" s="24"/>
+      <c r="AV39" s="24"/>
+      <c r="AW39" s="24"/>
+      <c r="AX39" s="24"/>
+      <c r="AY39" s="25"/>
+    </row>
+    <row r="40" spans="1:51" ht="12" customHeight="1">
+      <c r="A40" s="151">
         <v>5</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="39" t="s">
+      <c r="B40" s="152"/>
+      <c r="C40" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="39" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="26"/>
-      <c r="AL39" s="26"/>
-      <c r="AM39" s="26"/>
-      <c r="AN39" s="26"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="33"/>
-      <c r="AR39" s="33"/>
-      <c r="AS39" s="33"/>
-      <c r="AT39" s="33"/>
-      <c r="AU39" s="33"/>
-      <c r="AV39" s="33"/>
-      <c r="AW39" s="33"/>
-      <c r="AX39" s="33"/>
-      <c r="AY39" s="27"/>
-    </row>
-    <row r="40" spans="1:51" ht="12" customHeight="1" thickBot="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="40" t="s">
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="33"/>
+      <c r="AS40" s="33"/>
+      <c r="AT40" s="33"/>
+      <c r="AU40" s="33"/>
+      <c r="AV40" s="33"/>
+      <c r="AW40" s="33"/>
+      <c r="AX40" s="33"/>
+      <c r="AY40" s="27"/>
+    </row>
+    <row r="41" spans="1:51" ht="12" customHeight="1" thickBot="1">
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="23"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="23"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="24"/>
-      <c r="AX40" s="24"/>
-      <c r="AY40" s="25"/>
-    </row>
-    <row r="41" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A41" s="122" t="s">
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="32"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
+      <c r="AS41" s="24"/>
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="24"/>
+      <c r="AW41" s="24"/>
+      <c r="AX41" s="24"/>
+      <c r="AY41" s="25"/>
+    </row>
+    <row r="42" spans="1:51" ht="10.5" customHeight="1">
+      <c r="A42" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="123"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="123"/>
-      <c r="Y41" s="123"/>
-      <c r="Z41" s="123"/>
-      <c r="AA41" s="123"/>
-      <c r="AB41" s="123"/>
-      <c r="AC41" s="123"/>
-      <c r="AD41" s="123"/>
-      <c r="AE41" s="123"/>
-      <c r="AF41" s="123"/>
-      <c r="AG41" s="123"/>
-      <c r="AH41" s="123"/>
-      <c r="AI41" s="123"/>
-      <c r="AJ41" s="123"/>
-      <c r="AK41" s="123"/>
-      <c r="AL41" s="123"/>
-      <c r="AM41" s="123"/>
-      <c r="AN41" s="123"/>
-      <c r="AO41" s="123"/>
-      <c r="AP41" s="123"/>
-      <c r="AQ41" s="123"/>
-      <c r="AR41" s="123"/>
-      <c r="AS41" s="123"/>
-      <c r="AT41" s="123"/>
-      <c r="AU41" s="123"/>
-      <c r="AV41" s="123"/>
-      <c r="AW41" s="123"/>
-      <c r="AX41" s="123"/>
-      <c r="AY41" s="124"/>
-    </row>
-    <row r="42" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="24"/>
-      <c r="AK42" s="24"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
-      <c r="AR42" s="24"/>
-      <c r="AS42" s="24"/>
-      <c r="AT42" s="24"/>
-      <c r="AU42" s="24"/>
-      <c r="AV42" s="24"/>
-      <c r="AW42" s="24"/>
-      <c r="AX42" s="24"/>
-      <c r="AY42" s="25"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="156"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="156"/>
+      <c r="U42" s="156"/>
+      <c r="V42" s="156"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="156"/>
+      <c r="AA42" s="156"/>
+      <c r="AB42" s="156"/>
+      <c r="AC42" s="156"/>
+      <c r="AD42" s="156"/>
+      <c r="AE42" s="156"/>
+      <c r="AF42" s="156"/>
+      <c r="AG42" s="156"/>
+      <c r="AH42" s="156"/>
+      <c r="AI42" s="156"/>
+      <c r="AJ42" s="156"/>
+      <c r="AK42" s="156"/>
+      <c r="AL42" s="156"/>
+      <c r="AM42" s="156"/>
+      <c r="AN42" s="156"/>
+      <c r="AO42" s="156"/>
+      <c r="AP42" s="156"/>
+      <c r="AQ42" s="156"/>
+      <c r="AR42" s="156"/>
+      <c r="AS42" s="156"/>
+      <c r="AT42" s="156"/>
+      <c r="AU42" s="156"/>
+      <c r="AV42" s="156"/>
+      <c r="AW42" s="156"/>
+      <c r="AX42" s="156"/>
+      <c r="AY42" s="157"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
       <c r="A43" s="34"/>
@@ -16938,61 +16956,119 @@
       <c r="AX44" s="24"/>
       <c r="AY44" s="25"/>
     </row>
-    <row r="45" spans="1:51" ht="12.6" thickBot="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
-      <c r="AM45" s="37"/>
-      <c r="AN45" s="37"/>
-      <c r="AO45" s="37"/>
-      <c r="AP45" s="37"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="37"/>
-      <c r="AS45" s="37"/>
-      <c r="AT45" s="37"/>
-      <c r="AU45" s="37"/>
-      <c r="AV45" s="37"/>
-      <c r="AW45" s="37"/>
-      <c r="AX45" s="37"/>
-      <c r="AY45" s="28"/>
+    <row r="45" spans="1:51" ht="10.5" customHeight="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="24"/>
+      <c r="AH45" s="24"/>
+      <c r="AI45" s="24"/>
+      <c r="AJ45" s="24"/>
+      <c r="AK45" s="24"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="24"/>
+      <c r="AS45" s="24"/>
+      <c r="AT45" s="24"/>
+      <c r="AU45" s="24"/>
+      <c r="AV45" s="24"/>
+      <c r="AW45" s="24"/>
+      <c r="AX45" s="24"/>
+      <c r="AY45" s="25"/>
+    </row>
+    <row r="46" spans="1:51" ht="12.6" thickBot="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="37"/>
+      <c r="AN46" s="37"/>
+      <c r="AO46" s="37"/>
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37"/>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="37"/>
+      <c r="AX46" s="37"/>
+      <c r="AY46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A42:AY42"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -17009,11 +17085,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A41:AY41"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -17028,8 +17099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE106"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" customHeight="1"/>
@@ -17040,165 +17111,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.4" customHeight="1" thickTop="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="156" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="157" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="143">
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="139">
         <v>45546</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="144" t="s">
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="134">
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="130">
         <v>5</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="136"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="132"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="140" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="140" t="s">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="142" t="s">
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="139"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:51" ht="14.4" customHeight="1" thickTop="1"/>
     <row r="4" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:51" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="126"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="43" t="s">
         <v>19</v>
       </c>
@@ -17211,55 +17282,55 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="130" t="s">
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="131"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="150"/>
     </row>
     <row r="7" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A7" s="132">
+      <c r="A7" s="151">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="39" t="s">
         <v>92</v>
       </c>
@@ -17384,7 +17455,7 @@
       <c r="L9" s="23"/>
       <c r="M9" s="40"/>
       <c r="N9" s="55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
@@ -19028,10 +19099,10 @@
       <c r="AY38" s="25"/>
     </row>
     <row r="39" spans="1:57" ht="14.4" customHeight="1">
-      <c r="A39" s="120">
+      <c r="A39" s="153">
         <v>3</v>
       </c>
-      <c r="B39" s="121"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="39" t="s">
         <v>98</v>
       </c>
@@ -19270,7 +19341,7 @@
       <c r="L43" s="23"/>
       <c r="M43" s="40"/>
       <c r="N43" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
@@ -19641,10 +19712,10 @@
       <c r="AY49" s="25"/>
     </row>
     <row r="50" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A50" s="120">
+      <c r="A50" s="153">
         <v>4</v>
       </c>
-      <c r="B50" s="121"/>
+      <c r="B50" s="154"/>
       <c r="C50" s="39" t="s">
         <v>149</v>
       </c>
@@ -20525,10 +20596,10 @@
       <c r="AY65" s="25"/>
     </row>
     <row r="66" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A66" s="120">
+      <c r="A66" s="153">
         <v>5</v>
       </c>
-      <c r="B66" s="121"/>
+      <c r="B66" s="154"/>
       <c r="C66" s="39" t="s">
         <v>101</v>
       </c>
@@ -21519,10 +21590,10 @@
       <c r="AY83" s="25"/>
     </row>
     <row r="84" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A84" s="120">
+      <c r="A84" s="153">
         <v>6</v>
       </c>
-      <c r="B84" s="121"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="39" t="s">
         <v>102</v>
       </c>
@@ -21578,10 +21649,10 @@
       <c r="AY84" s="27"/>
     </row>
     <row r="85" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A85" s="120">
+      <c r="A85" s="153">
         <v>7</v>
       </c>
-      <c r="B85" s="121"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="39" t="s">
         <v>99</v>
       </c>
@@ -22132,10 +22203,10 @@
       <c r="AY94" s="25"/>
     </row>
     <row r="95" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A95" s="120">
+      <c r="A95" s="153">
         <v>8</v>
       </c>
-      <c r="B95" s="121"/>
+      <c r="B95" s="154"/>
       <c r="C95" s="39" t="s">
         <v>100</v>
       </c>
@@ -22191,10 +22262,10 @@
       <c r="AY95" s="27"/>
     </row>
     <row r="96" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A96" s="132">
+      <c r="A96" s="151">
         <v>9</v>
       </c>
-      <c r="B96" s="133"/>
+      <c r="B96" s="152"/>
       <c r="C96" s="39" t="s">
         <v>179</v>
       </c>
@@ -22525,59 +22596,59 @@
       <c r="AY101" s="25"/>
     </row>
     <row r="102" spans="1:51" ht="14.4" customHeight="1">
-      <c r="A102" s="122" t="s">
+      <c r="A102" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="123"/>
-      <c r="C102" s="123"/>
-      <c r="D102" s="123"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="123"/>
-      <c r="G102" s="123"/>
-      <c r="H102" s="123"/>
-      <c r="I102" s="123"/>
-      <c r="J102" s="123"/>
-      <c r="K102" s="123"/>
-      <c r="L102" s="123"/>
-      <c r="M102" s="123"/>
-      <c r="N102" s="123"/>
-      <c r="O102" s="123"/>
-      <c r="P102" s="123"/>
-      <c r="Q102" s="123"/>
-      <c r="R102" s="123"/>
-      <c r="S102" s="123"/>
-      <c r="T102" s="123"/>
-      <c r="U102" s="123"/>
-      <c r="V102" s="123"/>
-      <c r="W102" s="123"/>
-      <c r="X102" s="123"/>
-      <c r="Y102" s="123"/>
-      <c r="Z102" s="123"/>
-      <c r="AA102" s="123"/>
-      <c r="AB102" s="123"/>
-      <c r="AC102" s="123"/>
-      <c r="AD102" s="123"/>
-      <c r="AE102" s="123"/>
-      <c r="AF102" s="123"/>
-      <c r="AG102" s="123"/>
-      <c r="AH102" s="123"/>
-      <c r="AI102" s="123"/>
-      <c r="AJ102" s="123"/>
-      <c r="AK102" s="123"/>
-      <c r="AL102" s="123"/>
-      <c r="AM102" s="123"/>
-      <c r="AN102" s="123"/>
-      <c r="AO102" s="123"/>
-      <c r="AP102" s="123"/>
-      <c r="AQ102" s="123"/>
-      <c r="AR102" s="123"/>
-      <c r="AS102" s="123"/>
-      <c r="AT102" s="123"/>
-      <c r="AU102" s="123"/>
-      <c r="AV102" s="123"/>
-      <c r="AW102" s="123"/>
-      <c r="AX102" s="123"/>
-      <c r="AY102" s="124"/>
+      <c r="B102" s="156"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="156"/>
+      <c r="F102" s="156"/>
+      <c r="G102" s="156"/>
+      <c r="H102" s="156"/>
+      <c r="I102" s="156"/>
+      <c r="J102" s="156"/>
+      <c r="K102" s="156"/>
+      <c r="L102" s="156"/>
+      <c r="M102" s="156"/>
+      <c r="N102" s="156"/>
+      <c r="O102" s="156"/>
+      <c r="P102" s="156"/>
+      <c r="Q102" s="156"/>
+      <c r="R102" s="156"/>
+      <c r="S102" s="156"/>
+      <c r="T102" s="156"/>
+      <c r="U102" s="156"/>
+      <c r="V102" s="156"/>
+      <c r="W102" s="156"/>
+      <c r="X102" s="156"/>
+      <c r="Y102" s="156"/>
+      <c r="Z102" s="156"/>
+      <c r="AA102" s="156"/>
+      <c r="AB102" s="156"/>
+      <c r="AC102" s="156"/>
+      <c r="AD102" s="156"/>
+      <c r="AE102" s="156"/>
+      <c r="AF102" s="156"/>
+      <c r="AG102" s="156"/>
+      <c r="AH102" s="156"/>
+      <c r="AI102" s="156"/>
+      <c r="AJ102" s="156"/>
+      <c r="AK102" s="156"/>
+      <c r="AL102" s="156"/>
+      <c r="AM102" s="156"/>
+      <c r="AN102" s="156"/>
+      <c r="AO102" s="156"/>
+      <c r="AP102" s="156"/>
+      <c r="AQ102" s="156"/>
+      <c r="AR102" s="156"/>
+      <c r="AS102" s="156"/>
+      <c r="AT102" s="156"/>
+      <c r="AU102" s="156"/>
+      <c r="AV102" s="156"/>
+      <c r="AW102" s="156"/>
+      <c r="AX102" s="156"/>
+      <c r="AY102" s="157"/>
     </row>
     <row r="103" spans="1:51" ht="14.4" customHeight="1">
       <c r="A103" s="34"/>
@@ -22793,6 +22864,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AP6:AY6"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A84:B84"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A102:AY102"/>
     <mergeCell ref="AW1:AY2"/>
@@ -22809,14 +22888,6 @@
     <mergeCell ref="AU1:AV2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
-    <mergeCell ref="AP6:AY6"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A84:B84"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22843,162 +22914,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="156" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="157" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="143">
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="139">
         <v>42887</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="144" t="s">
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="134">
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="130">
         <v>6</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="136"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="132"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="140" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="140" t="s">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="142" t="s">
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="139"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="144" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="158"/>
@@ -23014,55 +23085,55 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="130" t="s">
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="131"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="150"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="132">
+      <c r="A7" s="151">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="39" t="s">
         <v>110</v>
       </c>
@@ -23448,10 +23519,10 @@
       <c r="AY13" s="25"/>
     </row>
     <row r="14" spans="1:51" ht="12" customHeight="1">
-      <c r="A14" s="132">
+      <c r="A14" s="151">
         <v>2</v>
       </c>
-      <c r="B14" s="133"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="39" t="s">
         <v>111</v>
       </c>
@@ -23837,10 +23908,10 @@
       <c r="AY20" s="25"/>
     </row>
     <row r="21" spans="1:51" ht="12" customHeight="1">
-      <c r="A21" s="132">
+      <c r="A21" s="151">
         <v>3</v>
       </c>
-      <c r="B21" s="133"/>
+      <c r="B21" s="152"/>
       <c r="C21" s="39" t="s">
         <v>121</v>
       </c>
@@ -24061,10 +24132,10 @@
       <c r="AY24" s="25"/>
     </row>
     <row r="25" spans="1:51" ht="12" customHeight="1">
-      <c r="A25" s="132">
+      <c r="A25" s="151">
         <v>4</v>
       </c>
-      <c r="B25" s="133"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="39" t="s">
         <v>125</v>
       </c>
@@ -24285,10 +24356,10 @@
       <c r="AY28" s="25"/>
     </row>
     <row r="29" spans="1:51" ht="12" customHeight="1">
-      <c r="A29" s="132">
+      <c r="A29" s="151">
         <v>5</v>
       </c>
-      <c r="B29" s="133"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="39" t="s">
         <v>112</v>
       </c>
@@ -25410,59 +25481,59 @@
       <c r="AY49" s="28"/>
     </row>
     <row r="50" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="123"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="123"/>
-      <c r="U50" s="123"/>
-      <c r="V50" s="123"/>
-      <c r="W50" s="123"/>
-      <c r="X50" s="123"/>
-      <c r="Y50" s="123"/>
-      <c r="Z50" s="123"/>
-      <c r="AA50" s="123"/>
-      <c r="AB50" s="123"/>
-      <c r="AC50" s="123"/>
-      <c r="AD50" s="123"/>
-      <c r="AE50" s="123"/>
-      <c r="AF50" s="123"/>
-      <c r="AG50" s="123"/>
-      <c r="AH50" s="123"/>
-      <c r="AI50" s="123"/>
-      <c r="AJ50" s="123"/>
-      <c r="AK50" s="123"/>
-      <c r="AL50" s="123"/>
-      <c r="AM50" s="123"/>
-      <c r="AN50" s="123"/>
-      <c r="AO50" s="123"/>
-      <c r="AP50" s="123"/>
-      <c r="AQ50" s="123"/>
-      <c r="AR50" s="123"/>
-      <c r="AS50" s="123"/>
-      <c r="AT50" s="123"/>
-      <c r="AU50" s="123"/>
-      <c r="AV50" s="123"/>
-      <c r="AW50" s="123"/>
-      <c r="AX50" s="123"/>
-      <c r="AY50" s="124"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="156"/>
+      <c r="Q50" s="156"/>
+      <c r="R50" s="156"/>
+      <c r="S50" s="156"/>
+      <c r="T50" s="156"/>
+      <c r="U50" s="156"/>
+      <c r="V50" s="156"/>
+      <c r="W50" s="156"/>
+      <c r="X50" s="156"/>
+      <c r="Y50" s="156"/>
+      <c r="Z50" s="156"/>
+      <c r="AA50" s="156"/>
+      <c r="AB50" s="156"/>
+      <c r="AC50" s="156"/>
+      <c r="AD50" s="156"/>
+      <c r="AE50" s="156"/>
+      <c r="AF50" s="156"/>
+      <c r="AG50" s="156"/>
+      <c r="AH50" s="156"/>
+      <c r="AI50" s="156"/>
+      <c r="AJ50" s="156"/>
+      <c r="AK50" s="156"/>
+      <c r="AL50" s="156"/>
+      <c r="AM50" s="156"/>
+      <c r="AN50" s="156"/>
+      <c r="AO50" s="156"/>
+      <c r="AP50" s="156"/>
+      <c r="AQ50" s="156"/>
+      <c r="AR50" s="156"/>
+      <c r="AS50" s="156"/>
+      <c r="AT50" s="156"/>
+      <c r="AU50" s="156"/>
+      <c r="AV50" s="156"/>
+      <c r="AW50" s="156"/>
+      <c r="AX50" s="156"/>
+      <c r="AY50" s="157"/>
     </row>
     <row r="51" spans="1:51" ht="10.5" customHeight="1">
       <c r="A51" s="34"/>
@@ -25678,18 +25749,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:AV2"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A50:AY50"/>
     <mergeCell ref="A21:B21"/>
@@ -25699,6 +25758,18 @@
     <mergeCell ref="AP6:AY6"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AT2"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:AV2"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25725,162 +25796,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="156" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="157" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="143">
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="139">
         <v>42887</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="144" t="s">
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="134">
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="130">
         <v>7</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="136"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="132"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="140" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="140" t="s">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="142" t="s">
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="139"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="144" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="158"/>
@@ -25896,55 +25967,55 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="130" t="s">
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="131"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="150"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="132">
+      <c r="A7" s="151">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="39" t="s">
         <v>118</v>
       </c>
@@ -26110,10 +26181,10 @@
       <c r="AY9" s="25"/>
     </row>
     <row r="10" spans="1:51" ht="12" customHeight="1">
-      <c r="A10" s="132">
+      <c r="A10" s="151">
         <v>2</v>
       </c>
-      <c r="B10" s="133"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="39" t="s">
         <v>119</v>
       </c>
@@ -26279,10 +26350,10 @@
       <c r="AY12" s="25"/>
     </row>
     <row r="13" spans="1:51" ht="12" customHeight="1">
-      <c r="A13" s="132">
+      <c r="A13" s="151">
         <v>3</v>
       </c>
-      <c r="B13" s="133"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="39" t="s">
         <v>120</v>
       </c>
@@ -26503,10 +26574,10 @@
       <c r="AY16" s="25"/>
     </row>
     <row r="17" spans="1:51" ht="12" customHeight="1">
-      <c r="A17" s="132">
+      <c r="A17" s="151">
         <v>4</v>
       </c>
-      <c r="B17" s="133"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="39" t="s">
         <v>122</v>
       </c>
@@ -26672,10 +26743,10 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="132">
+      <c r="A20" s="151">
         <v>5</v>
       </c>
-      <c r="B20" s="133"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="39" t="s">
         <v>123</v>
       </c>
@@ -26841,10 +26912,10 @@
       <c r="AY22" s="25"/>
     </row>
     <row r="23" spans="1:51" ht="12" customHeight="1">
-      <c r="A23" s="132">
+      <c r="A23" s="151">
         <v>6</v>
       </c>
-      <c r="B23" s="133"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="39" t="s">
         <v>124</v>
       </c>
@@ -27065,10 +27136,10 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="132">
+      <c r="A27" s="151">
         <v>7</v>
       </c>
-      <c r="B27" s="133"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="39" t="s">
         <v>126</v>
       </c>
@@ -27234,10 +27305,10 @@
       <c r="AY29" s="25"/>
     </row>
     <row r="30" spans="1:51" ht="12" customHeight="1">
-      <c r="A30" s="132">
+      <c r="A30" s="151">
         <v>8</v>
       </c>
-      <c r="B30" s="133"/>
+      <c r="B30" s="152"/>
       <c r="C30" s="39" t="s">
         <v>127</v>
       </c>
@@ -27933,59 +28004,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="123"/>
-      <c r="X43" s="123"/>
-      <c r="Y43" s="123"/>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
-      <c r="AC43" s="123"/>
-      <c r="AD43" s="123"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="123"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="123"/>
-      <c r="AL43" s="123"/>
-      <c r="AM43" s="123"/>
-      <c r="AN43" s="123"/>
-      <c r="AO43" s="123"/>
-      <c r="AP43" s="123"/>
-      <c r="AQ43" s="123"/>
-      <c r="AR43" s="123"/>
-      <c r="AS43" s="123"/>
-      <c r="AT43" s="123"/>
-      <c r="AU43" s="123"/>
-      <c r="AV43" s="123"/>
-      <c r="AW43" s="123"/>
-      <c r="AX43" s="123"/>
-      <c r="AY43" s="124"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="156"/>
+      <c r="X43" s="156"/>
+      <c r="Y43" s="156"/>
+      <c r="Z43" s="156"/>
+      <c r="AA43" s="156"/>
+      <c r="AB43" s="156"/>
+      <c r="AC43" s="156"/>
+      <c r="AD43" s="156"/>
+      <c r="AE43" s="156"/>
+      <c r="AF43" s="156"/>
+      <c r="AG43" s="156"/>
+      <c r="AH43" s="156"/>
+      <c r="AI43" s="156"/>
+      <c r="AJ43" s="156"/>
+      <c r="AK43" s="156"/>
+      <c r="AL43" s="156"/>
+      <c r="AM43" s="156"/>
+      <c r="AN43" s="156"/>
+      <c r="AO43" s="156"/>
+      <c r="AP43" s="156"/>
+      <c r="AQ43" s="156"/>
+      <c r="AR43" s="156"/>
+      <c r="AS43" s="156"/>
+      <c r="AT43" s="156"/>
+      <c r="AU43" s="156"/>
+      <c r="AV43" s="156"/>
+      <c r="AW43" s="156"/>
+      <c r="AX43" s="156"/>
+      <c r="AY43" s="157"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="34"/>
@@ -28201,6 +28272,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -28217,14 +28296,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28251,162 +28322,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="156" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="157" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
-      <c r="AH1" s="156" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
-      <c r="AK1" s="156"/>
-      <c r="AL1" s="143">
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="139">
         <v>42887</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="144" t="s">
+      <c r="AM1" s="139"/>
+      <c r="AN1" s="139"/>
+      <c r="AO1" s="139"/>
+      <c r="AP1" s="139"/>
+      <c r="AQ1" s="139"/>
+      <c r="AR1" s="139"/>
+      <c r="AS1" s="139"/>
+      <c r="AT1" s="139"/>
+      <c r="AU1" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AV1" s="145"/>
-      <c r="AW1" s="134">
+      <c r="AV1" s="141"/>
+      <c r="AW1" s="130">
         <v>8</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="136"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="132"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="140" t="s">
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="140" t="s">
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="142" t="s">
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="146"/>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="139"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="135"/>
     </row>
     <row r="3" spans="1:51" ht="10.199999999999999" thickTop="1"/>
     <row r="4" spans="1:51">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
     </row>
     <row r="5" spans="1:51" ht="10.199999999999999" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
     </row>
     <row r="6" spans="1:51" ht="13.5" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="144" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="158"/>
@@ -28422,55 +28493,55 @@
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="128"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="128"/>
-      <c r="AL6" s="128"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="128"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="130" t="s">
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="147"/>
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="147"/>
+      <c r="AI6" s="147"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="147"/>
+      <c r="AL6" s="147"/>
+      <c r="AM6" s="147"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="130"/>
-      <c r="AS6" s="130"/>
-      <c r="AT6" s="130"/>
-      <c r="AU6" s="130"/>
-      <c r="AV6" s="130"/>
-      <c r="AW6" s="130"/>
-      <c r="AX6" s="130"/>
-      <c r="AY6" s="131"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="150"/>
     </row>
     <row r="7" spans="1:51" ht="12" customHeight="1">
-      <c r="A7" s="132">
+      <c r="A7" s="151">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="39" t="s">
         <v>56</v>
       </c>
@@ -28691,10 +28762,10 @@
       <c r="AY10" s="25"/>
     </row>
     <row r="11" spans="1:51" ht="12" customHeight="1">
-      <c r="A11" s="132">
+      <c r="A11" s="151">
         <v>2</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="39" t="s">
         <v>57</v>
       </c>
@@ -28915,10 +28986,10 @@
       <c r="AY14" s="25"/>
     </row>
     <row r="15" spans="1:51" ht="12" customHeight="1">
-      <c r="A15" s="132">
+      <c r="A15" s="151">
         <v>3</v>
       </c>
-      <c r="B15" s="133"/>
+      <c r="B15" s="152"/>
       <c r="C15" s="39" t="s">
         <v>114</v>
       </c>
@@ -29084,10 +29155,10 @@
       <c r="AY17" s="25"/>
     </row>
     <row r="18" spans="1:51" ht="12" customHeight="1">
-      <c r="A18" s="132">
+      <c r="A18" s="151">
         <v>4</v>
       </c>
-      <c r="B18" s="133"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="39" t="s">
         <v>113</v>
       </c>
@@ -29198,10 +29269,10 @@
       <c r="AY19" s="25"/>
     </row>
     <row r="20" spans="1:51" ht="12" customHeight="1">
-      <c r="A20" s="132">
+      <c r="A20" s="151">
         <v>5</v>
       </c>
-      <c r="B20" s="133"/>
+      <c r="B20" s="152"/>
       <c r="C20" s="39" t="s">
         <v>115</v>
       </c>
@@ -29422,10 +29493,10 @@
       <c r="AY23" s="25"/>
     </row>
     <row r="24" spans="1:51" ht="12" customHeight="1">
-      <c r="A24" s="132">
+      <c r="A24" s="151">
         <v>6</v>
       </c>
-      <c r="B24" s="133"/>
+      <c r="B24" s="152"/>
       <c r="C24" s="39" t="s">
         <v>116</v>
       </c>
@@ -29591,10 +29662,10 @@
       <c r="AY26" s="25"/>
     </row>
     <row r="27" spans="1:51" ht="12" customHeight="1">
-      <c r="A27" s="132">
+      <c r="A27" s="151">
         <v>7</v>
       </c>
-      <c r="B27" s="133"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="39" t="s">
         <v>117</v>
       </c>
@@ -30449,59 +30520,59 @@
       <c r="AY42" s="28"/>
     </row>
     <row r="43" spans="1:51" ht="10.5" customHeight="1">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="123"/>
-      <c r="T43" s="123"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="123"/>
-      <c r="X43" s="123"/>
-      <c r="Y43" s="123"/>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
-      <c r="AC43" s="123"/>
-      <c r="AD43" s="123"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="123"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="123"/>
-      <c r="AL43" s="123"/>
-      <c r="AM43" s="123"/>
-      <c r="AN43" s="123"/>
-      <c r="AO43" s="123"/>
-      <c r="AP43" s="123"/>
-      <c r="AQ43" s="123"/>
-      <c r="AR43" s="123"/>
-      <c r="AS43" s="123"/>
-      <c r="AT43" s="123"/>
-      <c r="AU43" s="123"/>
-      <c r="AV43" s="123"/>
-      <c r="AW43" s="123"/>
-      <c r="AX43" s="123"/>
-      <c r="AY43" s="124"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="156"/>
+      <c r="X43" s="156"/>
+      <c r="Y43" s="156"/>
+      <c r="Z43" s="156"/>
+      <c r="AA43" s="156"/>
+      <c r="AB43" s="156"/>
+      <c r="AC43" s="156"/>
+      <c r="AD43" s="156"/>
+      <c r="AE43" s="156"/>
+      <c r="AF43" s="156"/>
+      <c r="AG43" s="156"/>
+      <c r="AH43" s="156"/>
+      <c r="AI43" s="156"/>
+      <c r="AJ43" s="156"/>
+      <c r="AK43" s="156"/>
+      <c r="AL43" s="156"/>
+      <c r="AM43" s="156"/>
+      <c r="AN43" s="156"/>
+      <c r="AO43" s="156"/>
+      <c r="AP43" s="156"/>
+      <c r="AQ43" s="156"/>
+      <c r="AR43" s="156"/>
+      <c r="AS43" s="156"/>
+      <c r="AT43" s="156"/>
+      <c r="AU43" s="156"/>
+      <c r="AV43" s="156"/>
+      <c r="AW43" s="156"/>
+      <c r="AX43" s="156"/>
+      <c r="AY43" s="157"/>
     </row>
     <row r="44" spans="1:51" ht="10.5" customHeight="1">
       <c r="A44" s="34"/>
@@ -30717,6 +30788,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A43:AY43"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="M6:AO6"/>
     <mergeCell ref="AP6:AY6"/>
@@ -30733,13 +30811,6 @@
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AT1"/>
     <mergeCell ref="AU1:AV2"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A43:AY43"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
